--- a/Python/IT.xlsx
+++ b/Python/IT.xlsx
@@ -1,41 +1,53 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Major Project\Python\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0922AD3A-9342-46E1-9605-6BE2EBAD90ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet name="publications" sheetId="1" r:id="rId1"/>
+    <sheet name="IT" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <si>
+    <t>periodS</t>
+  </si>
+  <si>
+    <t>publications</t>
+  </si>
+  <si>
+    <t>journals</t>
+  </si>
+  <si>
+    <t>books</t>
+  </si>
+  <si>
+    <t>conferences</t>
+  </si>
+  <si>
+    <t>patents</t>
+  </si>
+  <si>
+    <t>copyrights</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -65,13 +77,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -396,183 +416,488 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>year</v>
-      </c>
-      <c r="B1" t="str">
-        <v>noOfPublications</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>null-01-01</v>
+    <row r="1" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>2023</v>
       </c>
       <c r="B2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>2006-01-01</v>
+        <v>73</v>
+      </c>
+      <c r="C2">
+        <v>42</v>
+      </c>
+      <c r="D2">
+        <v>8</v>
+      </c>
+      <c r="E2">
+        <v>21</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2022</v>
       </c>
       <c r="B3">
+        <v>71</v>
+      </c>
+      <c r="C3">
+        <v>43</v>
+      </c>
+      <c r="D3">
+        <v>15</v>
+      </c>
+      <c r="E3">
+        <v>13</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2021</v>
+      </c>
+      <c r="B4">
+        <v>141</v>
+      </c>
+      <c r="C4">
+        <v>81</v>
+      </c>
+      <c r="D4">
+        <v>24</v>
+      </c>
+      <c r="E4">
+        <v>35</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>2020</v>
+      </c>
+      <c r="B5">
+        <v>98</v>
+      </c>
+      <c r="C5">
+        <v>54</v>
+      </c>
+      <c r="D5">
+        <v>17</v>
+      </c>
+      <c r="E5">
+        <v>23</v>
+      </c>
+      <c r="F5">
+        <v>4</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>2019</v>
+      </c>
+      <c r="B6">
+        <v>102</v>
+      </c>
+      <c r="C6">
+        <v>68</v>
+      </c>
+      <c r="D6">
+        <v>11</v>
+      </c>
+      <c r="E6">
+        <v>21</v>
+      </c>
+      <c r="F6">
         <v>2</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>2008-01-01</v>
-      </c>
-      <c r="B4">
+      <c r="G6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>2018</v>
+      </c>
+      <c r="B7">
+        <v>71</v>
+      </c>
+      <c r="C7">
+        <v>38</v>
+      </c>
+      <c r="D7">
+        <v>8</v>
+      </c>
+      <c r="E7">
+        <v>24</v>
+      </c>
+      <c r="F7">
         <v>1</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>2009-01-01</v>
-      </c>
-      <c r="B5">
+      <c r="G7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>2017</v>
+      </c>
+      <c r="B8">
+        <v>52</v>
+      </c>
+      <c r="C8">
+        <v>42</v>
+      </c>
+      <c r="D8">
         <v>2</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>2010-01-01</v>
-      </c>
-      <c r="B6">
+      <c r="E8">
+        <v>8</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>2016</v>
+      </c>
+      <c r="B9">
+        <v>66</v>
+      </c>
+      <c r="C9">
+        <v>34</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>30</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>2015</v>
+      </c>
+      <c r="B10">
+        <v>39</v>
+      </c>
+      <c r="C10">
+        <v>19</v>
+      </c>
+      <c r="D10">
+        <v>5</v>
+      </c>
+      <c r="E10">
+        <v>15</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>2014</v>
+      </c>
+      <c r="B11">
+        <v>20</v>
+      </c>
+      <c r="C11">
+        <v>11</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>9</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>2013</v>
+      </c>
+      <c r="B12">
+        <v>9</v>
+      </c>
+      <c r="C12">
+        <v>4</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>5</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>2012</v>
+      </c>
+      <c r="B13">
+        <v>18</v>
+      </c>
+      <c r="C13">
+        <v>10</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>8</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>2011</v>
+      </c>
+      <c r="B14">
+        <v>17</v>
+      </c>
+      <c r="C14">
+        <v>11</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14">
+        <v>4</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>2010</v>
+      </c>
+      <c r="B15">
         <v>12</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>2011-01-01</v>
-      </c>
-      <c r="B7">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>2012-01-01</v>
-      </c>
-      <c r="B8">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v>2013-01-01</v>
-      </c>
-      <c r="B9">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="str">
-        <v>2014-01-01</v>
-      </c>
-      <c r="B10">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="str">
-        <v>2015-01-01</v>
-      </c>
-      <c r="B11">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="str">
-        <v>2016-01-01</v>
-      </c>
-      <c r="B12">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="str">
-        <v>2017-01-01</v>
-      </c>
-      <c r="B13">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="str">
-        <v>2018-01-01</v>
-      </c>
-      <c r="B14">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="str">
-        <v>2019-01-01</v>
-      </c>
-      <c r="B15">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="str">
-        <v>2020-01-01</v>
+      <c r="C15">
+        <v>7</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>5</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>2009</v>
       </c>
       <c r="B16">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="str">
-        <v>2021-01-01</v>
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>2008</v>
       </c>
       <c r="B17">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="str">
-        <v>2022-01-01</v>
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>2007</v>
       </c>
       <c r="B18">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="str">
-        <v>2023-01-01</v>
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>2006</v>
       </c>
       <c r="B19">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="str">
-        <v>2024-01-01</v>
-      </c>
-      <c r="B20">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="str">
-        <v>undefined-01-01</v>
-      </c>
-      <c r="B21">
-        <v>1</v>
-      </c>
-    </row>
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="1:7" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="1:7" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="1:7" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="1:7" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="1:7" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="1:7" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="27" spans="1:7" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="28" spans="1:7" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="1:7" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="1:7" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="1:7" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="1:7" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="33" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="34" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="35" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="36" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="37" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="38" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="39" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="40" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="41" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="42" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="43" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="44" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="45" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="46" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="47" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="48" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="49" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="50" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="51" ht="15.6" x14ac:dyDescent="0.3"/>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B21"/>
+    <ignoredError sqref="A1:G19" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>